--- a/Data/demo_fasec.xlsx
+++ b/Data/demo_fasec.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="68">
   <si>
     <t xml:space="preserve">Live births by mother's age and newborn's sex [demo_fasec]</t>
   </si>
@@ -28,13 +28,37 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
+    <t xml:space="preserve">Step 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack the year columns (pivot_longer())</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extracted on</t>
   </si>
   <si>
+    <t xml:space="preserve">Step 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simplify the column names</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source of data</t>
   </si>
   <si>
     <t xml:space="preserve">Eurostat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rescale births to sum to the marginal totals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make age integer</t>
   </si>
   <si>
     <t xml:space="preserve">SEX</t>
@@ -208,10 +232,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD\.MM\.YY"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yy"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -232,6 +256,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,49 +324,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="206" zoomScaleNormal="206" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.98"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -350,71 +377,97 @@
       <c r="B3" s="2" t="n">
         <v>44375.7225925926</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44397.5723116204</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>128705</v>
@@ -437,10 +490,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>108673</v>
@@ -463,10 +516,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>470553</v>
@@ -489,10 +542,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>41197</v>
@@ -515,10 +568,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>74</v>
@@ -541,10 +594,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>67</v>
@@ -567,10 +620,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>414</v>
@@ -593,10 +646,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>35</v>
@@ -619,10 +672,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>171</v>
@@ -645,10 +698,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>224</v>
@@ -671,10 +724,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>930</v>
@@ -697,10 +750,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>97</v>
@@ -723,10 +776,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>436</v>
@@ -749,10 +802,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>511</v>
@@ -775,10 +828,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1784</v>
@@ -801,10 +854,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>228</v>
@@ -827,10 +880,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>822</v>
@@ -853,10 +906,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>818</v>
@@ -879,10 +932,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>2914</v>
@@ -905,10 +958,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>428</v>
@@ -931,10 +984,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>1470</v>
@@ -957,10 +1010,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1434</v>
@@ -983,10 +1036,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>4160</v>
@@ -1009,10 +1062,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>624</v>
@@ -1035,10 +1088,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>2030</v>
@@ -1061,10 +1114,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1946</v>
@@ -1087,10 +1140,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>5349</v>
@@ -1113,10 +1166,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>856</v>
@@ -1139,10 +1192,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>2742</v>
@@ -1165,10 +1218,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>2256</v>
@@ -1191,10 +1244,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>6369</v>
@@ -1217,10 +1270,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>1155</v>
@@ -1243,10 +1296,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>3505</v>
@@ -1269,10 +1322,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>2711</v>
@@ -1295,10 +1348,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>7456</v>
@@ -1321,10 +1374,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>1407</v>
@@ -1347,10 +1400,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>4434</v>
@@ -1373,10 +1426,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>3162</v>
@@ -1399,10 +1452,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>8749</v>
@@ -1425,10 +1478,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>1568</v>
@@ -1451,10 +1504,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>5502</v>
@@ -1477,10 +1530,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>3872</v>
@@ -1503,10 +1556,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>10451</v>
@@ -1529,10 +1582,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>1916</v>
@@ -1555,10 +1608,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>6616</v>
@@ -1581,10 +1634,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>4520</v>
@@ -1607,10 +1660,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>12045</v>
@@ -1633,10 +1686,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>2264</v>
@@ -1659,10 +1712,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>8008</v>
@@ -1685,10 +1738,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>5652</v>
@@ -1711,10 +1764,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>14554</v>
@@ -1737,10 +1790,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>2547</v>
@@ -1763,10 +1816,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>9126</v>
@@ -1789,10 +1842,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>6712</v>
@@ -1815,10 +1868,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>17407</v>
@@ -1841,10 +1894,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>3023</v>
@@ -1867,10 +1920,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>10099</v>
@@ -1893,10 +1946,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>7682</v>
@@ -1919,10 +1972,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>21652</v>
@@ -1945,10 +1998,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>3012</v>
@@ -1971,10 +2024,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>10585</v>
@@ -1997,10 +2050,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>8328</v>
@@ -2023,10 +2076,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>26689</v>
@@ -2049,10 +2102,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>3088</v>
@@ -2075,10 +2128,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>10170</v>
@@ -2101,10 +2154,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>8699</v>
@@ -2127,10 +2180,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>30747</v>
@@ -2153,10 +2206,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>3021</v>
@@ -2179,10 +2232,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>9818</v>
@@ -2205,10 +2258,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>8912</v>
@@ -2231,10 +2284,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>34917</v>
@@ -2257,10 +2310,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>2801</v>
@@ -2283,10 +2336,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>8500</v>
@@ -2309,10 +2362,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>8676</v>
@@ -2335,10 +2388,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>37313</v>
@@ -2361,10 +2414,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>2664</v>
@@ -2387,10 +2440,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>7241</v>
@@ -2413,10 +2466,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>7613</v>
@@ -2439,10 +2492,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>38472</v>
@@ -2465,10 +2518,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C90" s="4" t="n">
         <v>2306</v>
@@ -2491,10 +2544,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>6115</v>
@@ -2517,10 +2570,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>6347</v>
@@ -2543,10 +2596,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>37827</v>
@@ -2569,10 +2622,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>1886</v>
@@ -2595,10 +2648,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>5146</v>
@@ -2621,10 +2674,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>5360</v>
@@ -2647,10 +2700,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>35178</v>
@@ -2673,10 +2726,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>1645</v>
@@ -2699,10 +2752,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>4165</v>
@@ -2725,10 +2778,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>4311</v>
@@ -2751,10 +2804,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>30532</v>
@@ -2777,10 +2830,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>1279</v>
@@ -2803,10 +2856,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>3362</v>
@@ -2829,10 +2882,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>3121</v>
@@ -2855,10 +2908,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>24709</v>
@@ -2881,10 +2934,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>1011</v>
@@ -2907,10 +2960,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>2634</v>
@@ -2933,10 +2986,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>2087</v>
@@ -2959,10 +3012,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>19134</v>
@@ -2985,10 +3038,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>754</v>
@@ -3011,10 +3064,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C111" s="4" t="n">
         <v>2036</v>
@@ -3037,10 +3090,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>1413</v>
@@ -3063,10 +3116,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>14607</v>
@@ -3089,10 +3142,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>602</v>
@@ -3115,10 +3168,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>1464</v>
@@ -3141,10 +3194,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C116" s="4" t="n">
         <v>977</v>
@@ -3167,10 +3220,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>10405</v>
@@ -3193,10 +3246,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>373</v>
@@ -3219,10 +3272,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C119" s="4" t="n">
         <v>959</v>
@@ -3245,10 +3298,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C120" s="4" t="n">
         <v>534</v>
@@ -3271,10 +3324,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>6586</v>
@@ -3297,10 +3350,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>240</v>
@@ -3323,10 +3376,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C123" s="4" t="n">
         <v>592</v>
@@ -3349,10 +3402,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>323</v>
@@ -3375,10 +3428,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>3962</v>
@@ -3401,10 +3454,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>169</v>
@@ -3427,10 +3480,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C127" s="4" t="n">
         <v>345</v>
@@ -3453,10 +3506,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C128" s="4" t="n">
         <v>183</v>
@@ -3479,10 +3532,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C129" s="4" t="n">
         <v>2270</v>
@@ -3505,10 +3558,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>86</v>
@@ -3531,10 +3584,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C131" s="4" t="n">
         <v>177</v>
@@ -3557,10 +3610,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>104</v>
@@ -3583,10 +3636,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>1262</v>
@@ -3609,10 +3662,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>54</v>
@@ -3635,10 +3688,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C135" s="4" t="n">
         <v>96</v>
@@ -3661,10 +3714,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C136" s="4" t="n">
         <v>44</v>
@@ -3687,10 +3740,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>674</v>
@@ -3713,10 +3766,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>17</v>
@@ -3739,10 +3792,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C139" s="4" t="n">
         <v>43</v>
@@ -3765,10 +3818,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C140" s="4" t="n">
         <v>20</v>
@@ -3791,10 +3844,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>383</v>
@@ -3817,10 +3870,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C142" s="4" t="n">
         <v>14</v>
@@ -3843,10 +3896,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>20</v>
@@ -3869,10 +3922,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C144" s="4" t="n">
         <v>16</v>
@@ -3895,10 +3948,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C145" s="4" t="n">
         <v>214</v>
@@ -3921,10 +3974,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C146" s="4" t="n">
         <v>4</v>
@@ -3947,10 +4000,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>8</v>
@@ -3973,10 +4026,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>5</v>
@@ -3999,10 +4052,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>104</v>
@@ -4025,10 +4078,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C150" s="4" t="n">
         <v>3</v>
@@ -4051,10 +4104,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C151" s="4" t="n">
         <v>8</v>
@@ -4077,10 +4130,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C152" s="4" t="n">
         <v>6</v>
@@ -4103,10 +4156,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C153" s="4" t="n">
         <v>87</v>
@@ -4129,10 +4182,10 @@
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C154" s="4" t="n">
         <v>3</v>
@@ -4155,10 +4208,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C155" s="4" t="n">
         <v>148</v>
@@ -4181,10 +4234,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C156" s="4" t="n">
         <v>0</v>
@@ -4207,10 +4260,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C157" s="4" t="n">
         <v>0</v>
@@ -4233,10 +4286,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C158" s="4" t="n">
         <v>8</v>
@@ -4259,15 +4312,15 @@
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
